--- a/biology/Médecine/Nerf_ptérygoïdien_médial/Nerf_ptérygoïdien_médial.xlsx
+++ b/biology/Médecine/Nerf_ptérygoïdien_médial/Nerf_ptérygoïdien_médial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_pt%C3%A9rygo%C3%AFdien_m%C3%A9dial</t>
+          <t>Nerf_ptérygoïdien_médial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ptérygoïdien médial (ou nerf du ptérygoïdien interne ) est un nerf de la tête.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_pt%C3%A9rygo%C3%AFdien_m%C3%A9dial</t>
+          <t>Nerf_ptérygoïdien_médial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ptérygoïdien médial est un rameau terminal du nerf mandibulaire (CN V 3 ), lui-même une branche du nerf trijumeau (CN V).
 C'est la première branche du nerf mandibulaire.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nerf_pt%C3%A9rygo%C3%AFdien_m%C3%A9dial</t>
+          <t>Nerf_ptérygoïdien_médial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf ptérygoïdien médial innerve le muscle ptérygoïdien médial.
 Il innerve également le muscle tenseur du voile du palais, via  l'une de ses branches, le nerf du muscle tenseur du voile du palais.
